--- a/genSQL/file/demo1.xlsx
+++ b/genSQL/file/demo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongwei/coder/pythoner/justPython/genSQL/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B4F8B1-3DE1-2E42-AC68-DA5BBAFC3FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB4855-0B72-1B43-B10E-9B5A69CE796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F6E5F477-0B2D-D34F-97B2-764FE8E5A7E9}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>CORPORATION</t>
   </si>
   <si>
-    <t>DAY_ID</t>
-  </si>
-  <si>
     <t>FK_CMBRH_KEY</t>
   </si>
   <si>
@@ -145,6 +142,10 @@
   </si>
   <si>
     <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY_DT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +591,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -611,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -619,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -630,13 +631,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -644,121 +645,121 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
     </row>
